--- a/Таблица значений распределения.xlsx
+++ b/Таблица значений распределения.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Davut\University\Master ITMO\1 semester\Data pre-processing and statistical elements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05712DD-6587-41F4-AFDA-6F032257025E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47011DA4-6C87-4314-BA31-6A9971109705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{F279B2DC-4BA8-45EB-83C0-ADB4487A55AF}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{F279B2DC-4BA8-45EB-83C0-ADB4487A55AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Колмогоров" sheetId="2" r:id="rId1"/>
-    <sheet name="Ф функция" sheetId="1" r:id="rId2"/>
+    <sheet name="Норм распредлеение" sheetId="3" r:id="rId2"/>
+    <sheet name="Ф функция" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,9 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
   <si>
     <t>Ф</t>
+  </si>
+  <si>
+    <t>Нормстобр</t>
+  </si>
+  <si>
+    <t>нормстрасп</t>
   </si>
 </sst>
 </file>
@@ -135,6 +142,72 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B8835E7-E51E-4CA3-91FE-361EA52A26E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5819775" cy="4305300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -441,7 +514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8442129-6DDB-4ACA-AC3B-E7631739370A}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
@@ -453,16 +526,42 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5EF1AA-2FE6-44A6-BC01-3941327DAB3B}">
-  <dimension ref="A1:K31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C942AE6B-AD95-489E-B11F-CF071A5E9150}">
+  <dimension ref="K2:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="K2" sqref="K2:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5EF1AA-2FE6-44A6-BC01-3941327DAB3B}">
+  <dimension ref="A1:M31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -496,8 +595,11 @@
       <c r="K1">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -541,8 +643,11 @@
         <f t="shared" si="0"/>
         <v>0.53585639258517204</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.1</v>
       </c>
@@ -587,7 +692,7 @@
         <v>0.57534543473479549</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.2</v>
       </c>
@@ -632,7 +737,7 @@
         <v>0.61409188119887737</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.3</v>
       </c>
@@ -677,7 +782,7 @@
         <v>0.65173172653598244</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.4</v>
       </c>
@@ -722,7 +827,7 @@
         <v>0.68793305058260945</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.5</v>
       </c>
@@ -767,7 +872,7 @@
         <v>0.72240467524653507</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.6</v>
       </c>
@@ -812,7 +917,7 @@
         <v>0.75490290632569057</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.7</v>
       </c>
@@ -857,7 +962,7 @@
         <v>0.78523611583636277</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.8</v>
       </c>
@@ -902,7 +1007,7 @@
         <v>0.81326705696282742</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.9</v>
       </c>
@@ -947,7 +1052,7 @@
         <v>0.83891294048916909</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -992,7 +1097,7 @@
         <v>0.8621434279679645</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1.1000000000000001</v>
       </c>
@@ -1037,7 +1142,7 @@
         <v>0.88297680397689127</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1.2</v>
       </c>
@@ -1082,7 +1187,7 @@
         <v>0.90147467095025213</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1.3</v>
       </c>
@@ -1127,7 +1232,7 @@
         <v>0.91773556132233114</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1.4</v>
       </c>
